--- a/Document/210920일정표.xlsx
+++ b/Document/210920일정표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\hanagen2021_02\포폴\210920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B87724-F4EA-42C1-988C-81440B8E274F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403BEB9-4D09-4253-9EE4-DF254598EF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2475" yWindow="2760" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>10월</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(저번 시간에 들은 조언 코드는 적용함)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>3일간 교양으로 서울행(노트북x)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,18 +119,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(*10월 8일 2차 백신으로 변동 가능성 높음)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이템을 파는 가게</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2차 백신 접종으로 휴식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(*9월 연장)마을 씬과 거주구역 제작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -144,6 +132,38 @@
   </si>
   <si>
     <t>(*9월 연장)주민의 일부 시스템(레벨, 아이템 호불호 등) 구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 백신 접종으로 휴식 &amp; 기말고사 기간이랑 자격증 시험이 있어서 상황을 좀 봐야할듯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증 시험 있어서 수행 여부는 불확실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(저번 수업에 들은 조언 코드는 적용함)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요일에 계획 수정했는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 기말 일정 들어서 또 갈아엎음;;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(*10월 7일 2차 백신으로 변동 가능성 높음)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 10월 12일이었는데 교양때문에 5일로 바꾸었는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기말이랑 겹쳐서 여기저기 문의해보다 7일로 변경…</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -612,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -737,19 +757,22 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA3" s="11"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -765,17 +788,17 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="P4" s="9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
       <c r="U4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -792,7 +815,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="Z5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -808,6 +831,9 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
+      <c r="AD6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -823,11 +849,15 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
+      <c r="AD7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="AD8" s="13"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -841,6 +871,7 @@
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
+      <c r="AD9" s="13"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -854,6 +885,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
+      <c r="AD10" s="13"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
@@ -865,7 +897,7 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1">
         <v>44470</v>
@@ -965,56 +997,99 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1022,6 +1097,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -1032,11 +1108,26 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S19" s="13"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -1047,36 +1138,96 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="S20" s="13"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
       <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="13"/>
       <c r="W22" s="13"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="S23" s="13"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -1090,12 +1241,23 @@
       <c r="AD23" s="13"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AG23" s="13"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
@@ -1109,6 +1271,7 @@
       <c r="AD24" s="13"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
